--- a/181011_디지털_경기기록omekURLslug주제최종수량파일넘버_김가영.xlsx
+++ b/181011_디지털_경기기록omekURLslug주제최종수량파일넘버_김가영.xlsx
@@ -1735,8 +1735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
